--- a/plots/basic_stats/two_var_stats/allmus_country_name_vs_accreditation-PC.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_country_name_vs_accreditation-PC.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>32.242</v>
+        <v>31.172</v>
       </c>
       <c r="C2">
-        <v>44.181</v>
+        <v>45.144</v>
       </c>
       <c r="D2">
-        <v>76.423</v>
+        <v>76.316</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.033</v>
+        <v>0.981</v>
       </c>
       <c r="C3">
-        <v>1.411</v>
+        <v>1.579</v>
       </c>
       <c r="D3">
-        <v>2.444</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>6.549</v>
+        <v>6.435</v>
       </c>
       <c r="C4">
-        <v>8.413</v>
+        <v>8.468999999999999</v>
       </c>
       <c r="D4">
-        <v>14.962</v>
+        <v>14.904</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>2.645</v>
+        <v>2.56</v>
       </c>
       <c r="C5">
-        <v>3.526</v>
+        <v>3.66</v>
       </c>
       <c r="D5">
-        <v>6.170999999999999</v>
+        <v>6.220000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -450,10 +450,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>42.46899999999999</v>
+        <v>41.148</v>
       </c>
       <c r="C6">
-        <v>57.531</v>
+        <v>58.852</v>
       </c>
       <c r="D6">
         <v>100</v>
